--- a/MAD_tuple_MainDoc.xlsx
+++ b/MAD_tuple_MainDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lastd\Documents\Tuple-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADDEC8-9DDD-451E-8611-69C6C9035BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58924204-AE4A-4D40-86DE-997174191E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7920" windowWidth="29040" windowHeight="15840" xr2:uid="{F8144CC4-FA63-48C9-8DF8-50F8CD5A5E90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8144CC4-FA63-48C9-8DF8-50F8CD5A5E90}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterAnaDev Branches" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Branch
  Name</t>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Size of following vector</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Use Uncommon</t>
@@ -269,9 +266,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0AA5A9-FC81-4E53-B080-A526A7DD96A7}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="F1048566" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1048575" sqref="H1048575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +629,7 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="59.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="169.85546875" style="3" customWidth="1"/>
@@ -665,16 +662,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -687,7 +684,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -695,8 +692,8 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -709,7 +706,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -717,8 +714,8 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -727,11 +724,11 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -739,8 +736,8 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -753,7 +750,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -761,19 +758,19 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -781,8 +778,8 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -795,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -803,29 +800,29 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -838,15 +835,15 @@
         <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -859,15 +856,15 @@
         <v>38</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -880,15 +877,15 @@
         <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -897,19 +894,19 @@
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -922,179 +919,179 @@
         <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
@@ -1157,9 +1154,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1048576" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="H1048576" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
